--- a/biology/Biologie cellulaire et moléculaire/Récepteur_gamma_activé_par_les_proliférateurs_de_peroxysomes/Récepteur_gamma_activé_par_les_proliférateurs_de_peroxysomes.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Récepteur_gamma_activé_par_les_proliférateurs_de_peroxysomes/Récepteur_gamma_activé_par_les_proliférateurs_de_peroxysomes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9cepteur_gamma_activ%C3%A9_par_les_prolif%C3%A9rateurs_de_peroxysomes</t>
+          <t>Récepteur_gamma_activé_par_les_proliférateurs_de_peroxysomes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le récepteur gamma activé par les proliférateurs de peroxysomes (PPAR-γ ou PPARG), également connu sous le nom de récepteur de la glitazone, ou NR1C3 (récepteur nucléaire de la sous-famille 1, groupe C, membre 3) est un récepteur nucléaire de type II qui, chez l'homme, est codé par le gène PPARG.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R%C3%A9cepteur_gamma_activ%C3%A9_par_les_prolif%C3%A9rateurs_de_peroxysomes</t>
+          <t>Récepteur_gamma_activé_par_les_proliférateurs_de_peroxysomes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Distribution tissulaire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le PPARG est principalement présent dans le tissu adipeux, le côlon et les macrophages. Deux isoformes de PPARG sont détectées chez l'homme et chez la souris : PPAR-γ1 (présent dans presque tous les tissus sauf le muscle) et PPAR-γ2 (présent principalement dans le tissu adipeux et l'intestin).
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R%C3%A9cepteur_gamma_activ%C3%A9_par_les_prolif%C3%A9rateurs_de_peroxysomes</t>
+          <t>Récepteur_gamma_activé_par_les_proliférateurs_de_peroxysomes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Fonction</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le PPARG régule le stockage des acides gras et le métabolisme du glucose. Les gènes activés par le PPARG stimulent l'absorption des lipides et l'adipogenèse des cellules adipeuses. Les souris knockout PPARG ne génèrent pas de tissu adipeux lorsqu'elles sont nourries avec un régime riche en graisses. 
 Ce gène code un membre de la sous-famille des récepteurs nucléaires des PPAR (En anglais : Peroxisome Proliferator-Activated Receptor). Les PPAR forment des hétérodimères avec les récepteurs X des rétinoïdes (RXR) et ces hétérodimères régulent la transcription de divers gènes. Trois sous-types de PPAR sont connus : PPAR-alpha, PPAR-delta et PPAR-gamma. La protéine codée par ce gène est le PPAR-gamma et est un régulateur de la différenciation des adipocytes. Des variantes de transcriptions épissurées qui codent différentes isoformes ont également été décrites. 
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>R%C3%A9cepteur_gamma_activ%C3%A9_par_les_prolif%C3%A9rateurs_de_peroxysomes</t>
+          <t>Récepteur_gamma_activé_par_les_proliférateurs_de_peroxysomes</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,19 +592,21 @@
           <t>Interactions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a été démontré que le récepteur gamma activé par les proliférateurs de péroxysomes interagit avec ces derniers :
-EDF1[2],[3],[4]
-EP300[5],[6]
-HDAC3[5],[7]
-MED1[6]
-NCOA3[6]
-NCOA4[8]
-NCOA2[6]
-NR0B2[9]
-PPARGC1A[10],[11]
-RB1[5].
+EDF1
+EP300,
+HDAC3,
+MED1
+NCOA3
+NCOA4
+NCOA2
+NR0B2
+PPARGC1A,
+RB1.
 </t>
         </is>
       </c>
@@ -599,7 +617,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>R%C3%A9cepteur_gamma_activ%C3%A9_par_les_prolif%C3%A9rateurs_de_peroxysomes</t>
+          <t>Récepteur_gamma_activé_par_les_proliférateurs_de_peroxysomes</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -617,7 +635,9 @@
           <t>Pertinence clinique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le PPAR-gamma a été impliqué dans la pathologie de nombreuses maladies dont l'obésité, le diabète, l'athérosclérose et le cancer. Les agonistes du PPAR-gamma ont été utilisés dans le traitement de l'hyperlipidémie et de l'hyperglycémie. 
 Le PPAR-gamma diminue la réponse inflammatoire de nombreuses cellules cardiovasculaires, en particulier les cellules endothéliales. Il active le gène PON1, augmentant la synthèse et la libération de la paraoxonase 1 du foie, réduisant ainsi l'athérosclérose. 
